--- a/p6/数据通路与控制信号.xlsx
+++ b/p6/数据通路与控制信号.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D8365-80F2-42F9-B1CB-FC09297E5DC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728B62C-9D19-4DFE-8905-E86F0E8C2A45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8543" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="数据通路" sheetId="1" r:id="rId1"/>
-    <sheet name="功能控制信号" sheetId="3" r:id="rId2"/>
-    <sheet name="转发-value" sheetId="2" r:id="rId3"/>
+    <sheet name="数据通路-合并" sheetId="5" r:id="rId1"/>
+    <sheet name="功能控制信号-合并" sheetId="4" r:id="rId2"/>
+    <sheet name="功能控制信号" sheetId="3" r:id="rId3"/>
+    <sheet name="转发-value" sheetId="2" r:id="rId4"/>
+    <sheet name="数据通路" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="192">
   <si>
     <t>部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +671,112 @@
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-RD1-RD2-ALU-WD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-RD1-Shamt-ALU-WD</t>
+  </si>
+  <si>
+    <t>R-RD1-RD2-MDU</t>
+  </si>
+  <si>
+    <t>R-MDU-WD</t>
+  </si>
+  <si>
+    <t>R-RD1-MDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTLO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-RD1-J</t>
+  </si>
+  <si>
+    <t>R-RD1-J-WD</t>
+  </si>
+  <si>
+    <t>JALR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-RD1-Imm-ALU-WD</t>
+  </si>
+  <si>
+    <t>I-RD1-Imm-L-WD</t>
+  </si>
+  <si>
+    <t>I-RD1-RD2-Imm-S</t>
+  </si>
+  <si>
+    <t>I-Imm-WD</t>
+  </si>
+  <si>
+    <t>I-RD1-RD2-Br</t>
+  </si>
+  <si>
+    <t>J-Imm</t>
+  </si>
+  <si>
+    <t>J-Imm-1f-WD</t>
+  </si>
+  <si>
+    <t>I-RD1-Br</t>
+  </si>
+  <si>
+    <t>I-RD1-RegImm-Br</t>
+  </si>
+  <si>
+    <t>RegFIle.RD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDU.lo\MDU.hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDU.hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JARL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluSLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aluADDU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mduLO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +812,14 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -744,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +887,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,26 +1179,4352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085D4E7-5465-460B-A23C-AD6BA5B8939E}">
+  <dimension ref="A1:X49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.77734375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="25.77734375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFF6A9C-E390-4713-A174-8F14E7DFB9A7}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K1:L17 A1:I17 M1:Q17" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F157E-2820-44DD-84F9-05CBA3E9E49C}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G1:N5 G10:N15 K8:L8 N8 A10:D15 A1:D7 G7:N7 G6:L6 N6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004FD89D-5A27-4979-91F8-E922A16C21AB}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.53125" style="1"/>
-    <col min="5" max="6" width="15.53125" style="8"/>
-    <col min="7" max="11" width="15.53125" style="1"/>
-    <col min="12" max="13" width="15.53125" style="8"/>
-    <col min="14" max="16384" width="15.53125" style="1"/>
+    <col min="1" max="4" width="15.5546875" style="1"/>
+    <col min="5" max="6" width="15.5546875" style="8"/>
+    <col min="7" max="11" width="15.5546875" style="1"/>
+    <col min="12" max="13" width="15.5546875" style="8"/>
+    <col min="14" max="16384" width="15.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +5577,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1176,9 +5627,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1224,9 +5675,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1270,9 +5721,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
@@ -1319,9 +5770,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1368,9 +5819,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1417,11 +5868,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1470,9 +5921,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1519,11 +5970,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1572,9 +6023,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1621,8 +6072,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1672,9 +6123,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1723,9 +6174,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1772,9 +6223,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1821,11 +6272,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1874,9 +6325,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1923,9 +6374,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1972,9 +6423,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2033,9 +6484,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2082,11 +6533,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2135,9 +6586,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2184,9 +6635,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2233,9 +6684,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2281,9 +6732,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="8" t="s">
         <v>150</v>
       </c>
@@ -2327,11 +6778,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2380,9 +6831,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
@@ -2429,9 +6880,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2478,11 +6929,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2531,9 +6982,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2580,9 +7031,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2631,9 +7082,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="7" t="s">
         <v>140</v>
       </c>
@@ -2679,9 +7130,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2728,11 +7179,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2781,9 +7232,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2830,11 +7281,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2883,9 +7334,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,21 +7383,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>138</v>
       </c>
@@ -2954,18 +7405,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B3:B7"/>
@@ -2980,1035 +7438,9 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A29:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F157E-2820-44DD-84F9-05CBA3E9E49C}">
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.46484375" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G1:N5 G10:N15 K8:L8 N8 A10:D15 A1:D7 G7:N7 G6:L6 N6" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004FD89D-5A27-4979-91F8-E922A16C21AB}">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="15.53125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/p6/数据通路与控制信号.xlsx
+++ b/p6/数据通路与控制信号.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728B62C-9D19-4DFE-8905-E86F0E8C2A45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4983FEF2-5DCA-4A65-A23E-2758126A10BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8544" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路-合并" sheetId="5" r:id="rId1"/>
     <sheet name="功能控制信号-合并" sheetId="4" r:id="rId2"/>
-    <sheet name="功能控制信号" sheetId="3" r:id="rId3"/>
+    <sheet name="转发-value-合并" sheetId="7" r:id="rId3"/>
     <sheet name="转发-value" sheetId="2" r:id="rId4"/>
     <sheet name="数据通路" sheetId="1" r:id="rId5"/>
+    <sheet name="功能控制信号" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="193">
   <si>
     <t>部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +778,10 @@
   </si>
   <si>
     <t>10/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,6 +901,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,11 +1190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C085D4E7-5465-460B-A23C-AD6BA5B8939E}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1196,16 +1204,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>97</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -1258,10 +1266,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="I2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1312,7 +1320,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1374,8 +1382,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1434,8 +1442,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1492,8 +1500,8 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="9" t="s">
         <v>85</v>
       </c>
@@ -1550,8 +1558,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1608,8 +1616,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1666,10 +1674,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1728,8 +1736,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1786,10 +1794,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1848,8 +1856,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1914,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1966,8 +1974,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2026,8 +2034,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
@@ -2084,8 +2092,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="9" t="s">
         <v>62</v>
       </c>
@@ -2142,10 +2150,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2204,8 +2212,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
@@ -2262,8 +2270,8 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2326,8 +2334,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
@@ -2396,8 +2404,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
@@ -2454,10 +2462,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2516,8 +2524,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
@@ -2580,8 +2588,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="9" t="s">
         <v>25</v>
       </c>
@@ -2638,8 +2646,8 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
         <v>148</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2698,8 +2706,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2756,10 +2764,10 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -2830,8 +2838,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="9" t="s">
         <v>36</v>
       </c>
@@ -2888,8 +2896,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="9" t="s">
         <v>39</v>
       </c>
@@ -2946,10 +2954,10 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3008,8 +3016,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
@@ -3066,8 +3074,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -3126,8 +3134,8 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="9" t="s">
         <v>140</v>
       </c>
@@ -3181,8 +3189,8 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="9" t="s">
         <v>35</v>
       </c>
@@ -3239,10 +3247,10 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -3307,8 +3315,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
@@ -3365,10 +3373,10 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -3427,8 +3435,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="9" t="s">
         <v>39</v>
       </c>
@@ -3528,13 +3536,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A37:A38"/>
@@ -3546,6 +3547,13 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="A9:A10"/>
@@ -3565,7 +3573,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4068,7 +4076,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>115</v>
@@ -4480,741 +4488,449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K1:L17 A1:I17 M1:Q17" numberStoredAsText="1"/>
+    <ignoredError sqref="K1:L17 A1:I9 M1:Q17 A11:I17 A10:E10 G10:I10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F157E-2820-44DD-84F9-05CBA3E9E49C}">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C608FF1D-9423-4529-AE00-49A8F173556E}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:N16"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="16384" width="15.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="C4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="M3" s="5">
+      <c r="E4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="N3" s="5">
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="J4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="M4" s="5">
+      <c r="L4" s="10">
         <v>1</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>139</v>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="10">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G1:N5 G10:N15 K8:L8 N8 A10:D15 A1:D7 G7:N7 G6:L6 N6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5226,7 +4942,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5578,7 +5294,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5628,8 +5344,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5676,8 +5392,8 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5722,8 +5438,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
@@ -5771,8 +5487,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5820,8 +5536,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5869,10 +5585,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5922,8 +5638,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -5971,10 +5687,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -6024,8 +5740,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -6073,7 +5789,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -6124,8 +5840,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6175,8 +5891,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -6224,8 +5940,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
@@ -6273,10 +5989,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -6326,8 +6042,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
@@ -6375,8 +6091,8 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -6424,8 +6140,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6485,8 +6201,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6534,10 +6250,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6587,8 +6303,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -6636,8 +6352,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -6685,8 +6401,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -6733,8 +6449,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="8" t="s">
         <v>150</v>
       </c>
@@ -6779,10 +6495,10 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -6832,8 +6548,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
@@ -6881,8 +6597,8 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
@@ -6930,10 +6646,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6983,8 +6699,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -7032,8 +6748,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -7083,8 +6799,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="7" t="s">
         <v>140</v>
       </c>
@@ -7131,8 +6847,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
@@ -7180,10 +6896,10 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -7233,8 +6949,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
@@ -7282,10 +6998,10 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -7335,8 +7051,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
@@ -7417,13 +7133,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B3:B7"/>
@@ -7438,9 +7147,749 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A29:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F157E-2820-44DD-84F9-05CBA3E9E49C}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G1:N5 G10:N15 K8:L8 N8 A10:D15 A1:D7 G7:N7 G6:L6 N6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/p6/数据通路与控制信号.xlsx
+++ b/p6/数据通路与控制信号.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4983FEF2-5DCA-4A65-A23E-2758126A10BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D4087-D5AC-4152-8D9C-C4C98383A843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8544" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,6 +901,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1191,10 +1194,10 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M2"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1204,16 +1207,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>97</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -1266,10 +1269,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="I2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1320,7 +1323,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1382,8 +1385,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1442,8 +1445,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1500,8 +1503,8 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="9" t="s">
         <v>85</v>
       </c>
@@ -1558,8 +1561,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1616,8 +1619,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1674,10 +1677,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1736,8 +1739,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1794,10 +1797,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1856,8 +1859,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1917,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1974,8 +1977,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2034,8 +2037,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2095,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="9" t="s">
         <v>62</v>
       </c>
@@ -2150,10 +2153,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2212,8 +2215,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
@@ -2270,8 +2273,8 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2334,8 +2337,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
@@ -2363,8 +2366,8 @@
       <c r="K20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>59</v>
+      <c r="L20" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>66</v>
@@ -2404,8 +2407,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
@@ -2462,10 +2465,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2524,8 +2527,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
@@ -2588,8 +2591,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="9" t="s">
         <v>25</v>
       </c>
@@ -2646,8 +2649,8 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>148</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2706,8 +2709,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
@@ -2764,10 +2767,10 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -2838,8 +2841,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="9" t="s">
         <v>36</v>
       </c>
@@ -2896,8 +2899,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="9" t="s">
         <v>39</v>
       </c>
@@ -2954,10 +2957,10 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3016,8 +3019,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
@@ -3074,8 +3077,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -3134,8 +3137,8 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="9" t="s">
         <v>140</v>
       </c>
@@ -3189,8 +3192,8 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="9" t="s">
         <v>35</v>
       </c>
@@ -3247,10 +3250,10 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -3315,8 +3318,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
@@ -3373,10 +3376,10 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -3435,8 +3438,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="9" t="s">
         <v>39</v>
       </c>
@@ -3536,17 +3539,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3561,6 +3553,17 @@
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3573,7 +3576,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3914,7 +3917,7 @@
         <v>114</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>112</v>
@@ -4488,7 +4491,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K1:L17 A1:I9 M1:Q17 A11:I17 A10:E10 G10:I10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Q17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4501,7 +4504,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5294,7 +5297,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5344,8 +5347,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5392,8 +5395,8 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5438,8 +5441,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
@@ -5487,8 +5490,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5536,8 +5539,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5585,10 +5588,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5638,8 +5641,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -5687,10 +5690,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5740,8 +5743,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -5789,7 +5792,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -5840,8 +5843,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5891,8 +5894,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5940,8 +5943,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
@@ -5989,10 +5992,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -6042,8 +6045,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
@@ -6091,8 +6094,8 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -6140,8 +6143,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6201,8 +6204,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
@@ -6250,10 +6253,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -6303,8 +6306,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -6352,8 +6355,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -6401,8 +6404,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -6449,8 +6452,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="8" t="s">
         <v>150</v>
       </c>
@@ -6495,10 +6498,10 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -6548,8 +6551,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
@@ -6597,8 +6600,8 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
@@ -6646,10 +6649,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6699,8 +6702,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -6748,8 +6751,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6799,8 +6802,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="7" t="s">
         <v>140</v>
       </c>
@@ -6847,8 +6850,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
@@ -6896,10 +6899,10 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -6949,8 +6952,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
@@ -6998,10 +7001,10 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -7051,8 +7054,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
@@ -7133,6 +7136,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B3:B7"/>
@@ -7147,13 +7157,6 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A29:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
